--- a/Config/Excel/LodingTips.xlsx
+++ b/Config/Excel/LodingTips.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F1B887-9149-425B-82EE-04D94A9F076F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B669B3C-5B84-4312-A977-4551395AE072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CFD34420-279D-4E93-8D12-6FCEAFA44689}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CFD34420-279D-4E93-8D12-6FCEAFA44689}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -44,38 +42,253 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Tips0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tips1</t>
-  </si>
-  <si>
-    <t>Tips2</t>
-  </si>
-  <si>
-    <t>Tips3</t>
-  </si>
-  <si>
-    <t>Tips4</t>
-  </si>
-  <si>
-    <t>Tips5</t>
-  </si>
-  <si>
-    <t>Tips6</t>
-  </si>
-  <si>
-    <t>Tips7</t>
-  </si>
-  <si>
-    <t>Tips8</t>
-  </si>
-  <si>
-    <t>Tips9</t>
-  </si>
-  <si>
-    <t>Tips10</t>
+    <t>&lt;size=40&gt;★ポイントとは★&lt;/size&gt;
+ポイントを使うと、
+&lt;b&gt;&lt;color=#ffff00ff&gt;ユーザーの設計図購入&lt;/color&gt;&lt;/b&gt;や
+&lt;b&gt;&lt;color=#ff0000ff&gt;ギフト券と交換&lt;/color&gt;&lt;/b&gt;ができます。</t>
+    <rPh sb="31" eb="32">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;size=40&gt;★ポイント入手★&lt;/size&gt;
+ポイントは、
+&lt;b&gt;&lt;color=#ffff00ff&gt;冒険&lt;/color&gt;&lt;/b&gt;や&lt;b&gt;&lt;color=#ff0000ff&gt;設計図市場&lt;/color&gt;&lt;/b&gt;などで入手可能。
+クラフトシードで多量に入手も可能。</t>
+    <rPh sb="14" eb="16">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>タリョウ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;size=40&gt;★宝箱★&lt;/size&gt;
+冒険で宝箱がでることがある。
+&lt;b&gt;&lt;color=#ffff00ff&gt;３倍チケット&lt;/color&gt;&lt;/b&gt;や&lt;b&gt;&lt;color=#ffff00ff&gt;ガチャチケット&lt;/color&gt;&lt;/b&gt;、
+&lt;color=#ff0000ff&gt;ポイント&lt;/color&gt;&lt;/b&gt;などレアなアイテムが入手可能。
+宝箱だけのお宝MAPも・・・・？</t>
+    <rPh sb="10" eb="12">
+      <t>タカラバコ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タカラバコ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>タカラバコ</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;size=40&gt;★設計図市場★&lt;/size&gt;
+設計図市場では、
+&lt;b&gt;&lt;color=#ffff00ff&gt;ユーザーの設計図&lt;/color&gt;&lt;/b&gt;を見ることができる。
+新しく購入したユーザーの設計図は、
+アイテムが無くてもホームへ
+配置することが可能。</t>
+    <rPh sb="59" eb="62">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="97" eb="100">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;size=40&gt;★マイショップ★&lt;/size&gt;
+マイショップでは、
+&lt;b&gt;&lt;color=#ffff00ff&gt;自分の設計図をユーザーへ公開&lt;/color&gt;&lt;/b&gt;することができる。
+他にも、自分への「いいね」数の確認もできる。
+自分の設計図が購入されると、
+&lt;b&gt;&lt;color=#ffff00ff&gt;ポイントを入手&lt;/color&gt;&lt;/b&gt;できる。</t>
+    <rPh sb="105" eb="106">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="118" eb="121">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;size=40&gt;★ベッド★&lt;/size&gt;
+ホームで夜にベッドを使用すると、
+&lt;b&gt;&lt;color=#ffff00ff&gt;朝まで時間をスキップ&lt;/color&gt;&lt;/b&gt;することができる。
+畑の時間は進まないので注意。</t>
+    <rPh sb="27" eb="28">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ハタケ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;size=40&gt;★畑★&lt;/size&gt;
+畑に種を植えると作物が育つ。
+&lt;b&gt;&lt;color=#ffff00ff&gt;成長時間は作物毎に異なる&lt;/color&gt;&lt;/b&gt;ので、待ってみよう。
+土ブロックにクワを使用することで、
+畑ブロックに変化します。</t>
+    <rPh sb="10" eb="11">
+      <t>ハタケ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ハタケ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タネ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サクモツ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ソダ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>ハタケ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;size=40&gt;★スキル★&lt;/size&gt;
+武器には色々なスキルがあります。
+&lt;b&gt;&lt;color=#ffff00ff&gt;同じ武器でも異なるスキル&lt;/color&gt;&lt;/b&gt;がつくことがあります。
+どんどん武器を手に入れて、
+最強の武器を探してみよう！</t>
+    <rPh sb="23" eb="25">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>サイキョウ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -121,9 +334,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -143,8 +359,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2AB9BDE-A9CC-48DC-AC3C-5223BF231827}" name="テーブル1" displayName="テーブル1" ref="A1:B12" totalsRowShown="0">
-  <autoFilter ref="A1:B12" xr:uid="{E2AB9BDE-A9CC-48DC-AC3C-5223BF231827}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2AB9BDE-A9CC-48DC-AC3C-5223BF231827}" name="テーブル1" displayName="テーブル1" ref="A1:B9" totalsRowShown="0">
+  <autoFilter ref="A1:B9" xr:uid="{E2AB9BDE-A9CC-48DC-AC3C-5223BF231827}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D9C8D8FF-F3B3-427E-9910-83D668271F07}" name="ID"/>
     <tableColumn id="2" xr3:uid="{EF5B447A-4808-4554-A034-D8CA54A8BEFE}" name="Text"/>
@@ -450,19 +666,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9BF399-F6A7-4EE7-8A96-D09C9C129174}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="53.625" customWidth="1"/>
+    <col min="2" max="2" width="53.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,92 +686,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="108" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="126" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="144" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="144" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="144" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="108" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" ht="126" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" ht="126" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/LodingTips.xlsx
+++ b/Config/Excel/LodingTips.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B669B3C-5B84-4312-A977-4551395AE072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDADC326-1A41-4A0F-9C8C-AC01E6118422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CFD34420-279D-4E93-8D12-6FCEAFA44689}"/>
   </bookViews>
@@ -44,7 +44,7 @@
   <si>
     <t>&lt;size=40&gt;★ポイントとは★&lt;/size&gt;
 ポイントを使うと、
-&lt;b&gt;&lt;color=#ffff00ff&gt;ユーザーの設計図購入&lt;/color&gt;&lt;/b&gt;や
+&lt;b&gt;&lt;color=#ff0000ff&gt;ユーザーの設計図購入&lt;/color&gt;&lt;/b&gt;や
 &lt;b&gt;&lt;color=#ff0000ff&gt;ギフト券と交換&lt;/color&gt;&lt;/b&gt;ができます。</t>
     <rPh sb="31" eb="32">
       <t>ツカ</t>
@@ -66,7 +66,7 @@
   <si>
     <t>&lt;size=40&gt;★ポイント入手★&lt;/size&gt;
 ポイントは、
-&lt;b&gt;&lt;color=#ffff00ff&gt;冒険&lt;/color&gt;&lt;/b&gt;や&lt;b&gt;&lt;color=#ff0000ff&gt;設計図市場&lt;/color&gt;&lt;/b&gt;などで入手可能。
+&lt;b&gt;&lt;color=#ff0000ff&gt;冒険&lt;/color&gt;&lt;/b&gt;や&lt;b&gt;&lt;color=#ff0000ff&gt;設計図市場&lt;/color&gt;&lt;/b&gt;などで入手可能。
 クラフトシードで多量に入手も可能。</t>
     <rPh sb="14" eb="16">
       <t>ニュウシュ</t>
@@ -94,8 +94,8 @@
   <si>
     <t>&lt;size=40&gt;★宝箱★&lt;/size&gt;
 冒険で宝箱がでることがある。
-&lt;b&gt;&lt;color=#ffff00ff&gt;３倍チケット&lt;/color&gt;&lt;/b&gt;や&lt;b&gt;&lt;color=#ffff00ff&gt;ガチャチケット&lt;/color&gt;&lt;/b&gt;、
-&lt;color=#ff0000ff&gt;ポイント&lt;/color&gt;&lt;/b&gt;などレアなアイテムが入手可能。
+&lt;b&gt;&lt;color=#ff0000ff&gt;３倍チケット&lt;/color&gt;&lt;/b&gt;や&lt;b&gt;&lt;color=#ff0000ff&gt;ガチャチケット&lt;/color&gt;&lt;/b&gt;、
+&lt;b&gt;&lt;color=#ff0000ff&gt;ポイント&lt;/color&gt;&lt;/b&gt;などレアなアイテムが入手可能。
 宝箱だけのお宝MAPも・・・・？</t>
     <rPh sb="10" eb="12">
       <t>タカラバコ</t>
@@ -109,16 +109,16 @@
     <rPh sb="58" eb="59">
       <t>バイ</t>
     </rPh>
-    <rPh sb="160" eb="162">
+    <rPh sb="163" eb="165">
       <t>ニュウシュ</t>
     </rPh>
-    <rPh sb="162" eb="164">
+    <rPh sb="165" eb="167">
       <t>カノウ</t>
     </rPh>
-    <rPh sb="166" eb="168">
+    <rPh sb="169" eb="171">
       <t>タカラバコ</t>
     </rPh>
-    <rPh sb="172" eb="173">
+    <rPh sb="175" eb="176">
       <t>タカラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -126,7 +126,7 @@
   <si>
     <t>&lt;size=40&gt;★設計図市場★&lt;/size&gt;
 設計図市場では、
-&lt;b&gt;&lt;color=#ffff00ff&gt;ユーザーの設計図&lt;/color&gt;&lt;/b&gt;を見ることができる。
+&lt;b&gt;&lt;color=#ff0000ff&gt;ユーザーの設計図&lt;/color&gt;&lt;/b&gt;を見ることができる。
 新しく購入したユーザーの設計図は、
 アイテムが無くてもホームへ
 配置することが可能。</t>
@@ -159,10 +159,10 @@
   <si>
     <t>&lt;size=40&gt;★マイショップ★&lt;/size&gt;
 マイショップでは、
-&lt;b&gt;&lt;color=#ffff00ff&gt;自分の設計図をユーザーへ公開&lt;/color&gt;&lt;/b&gt;することができる。
+&lt;b&gt;&lt;color=#ff0000ff&gt;自分の設計図をユーザーへ公開&lt;/color&gt;&lt;/b&gt;することができる。
 他にも、自分への「いいね」数の確認もできる。
 自分の設計図が購入されると、
-&lt;b&gt;&lt;color=#ffff00ff&gt;ポイントを入手&lt;/color&gt;&lt;/b&gt;できる。</t>
+&lt;b&gt;&lt;color=#ff0000ff&gt;ポイントを入手&lt;/color&gt;&lt;/b&gt;できる。</t>
     <rPh sb="105" eb="106">
       <t>スウ</t>
     </rPh>
@@ -186,7 +186,7 @@
   <si>
     <t>&lt;size=40&gt;★ベッド★&lt;/size&gt;
 ホームで夜にベッドを使用すると、
-&lt;b&gt;&lt;color=#ffff00ff&gt;朝まで時間をスキップ&lt;/color&gt;&lt;/b&gt;することができる。
+&lt;b&gt;&lt;color=#ff0000ff&gt;朝まで時間をスキップ&lt;/color&gt;&lt;/b&gt;することができる。
 畑の時間は進まないので注意。</t>
     <rPh sb="27" eb="28">
       <t>ヨル</t>
@@ -217,7 +217,7 @@
   <si>
     <t>&lt;size=40&gt;★畑★&lt;/size&gt;
 畑に種を植えると作物が育つ。
-&lt;b&gt;&lt;color=#ffff00ff&gt;成長時間は作物毎に異なる&lt;/color&gt;&lt;/b&gt;ので、待ってみよう。
+&lt;b&gt;&lt;color=#ff0000ff&gt;成長時間は作物毎に異なる&lt;/color&gt;&lt;/b&gt;ので、待ってみよう。
 土ブロックにクワを使用することで、
 畑ブロックに変化します。</t>
     <rPh sb="10" eb="11">
@@ -252,7 +252,7 @@
   <si>
     <t>&lt;size=40&gt;★スキル★&lt;/size&gt;
 武器には色々なスキルがあります。
-&lt;b&gt;&lt;color=#ffff00ff&gt;同じ武器でも異なるスキル&lt;/color&gt;&lt;/b&gt;がつくことがあります。
+&lt;b&gt;&lt;color=#ff0000ff&gt;同じ武器でも異なるスキル&lt;/color&gt;&lt;/b&gt;がつくことがあります。
 どんどん武器を手に入れて、
 最強の武器を探してみよう！</t>
     <rPh sb="23" eb="25">
@@ -669,7 +669,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/Config/Excel/LodingTips.xlsx
+++ b/Config/Excel/LodingTips.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDADC326-1A41-4A0F-9C8C-AC01E6118422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB975EB-8E92-4DD8-BAF0-9D6EC9C82B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CFD34420-279D-4E93-8D12-6FCEAFA44689}"/>
+    <workbookView xWindow="2496" yWindow="516" windowWidth="19356" windowHeight="10200" xr2:uid="{CFD34420-279D-4E93-8D12-6FCEAFA44689}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -287,6 +287,52 @@
     </rPh>
     <rPh sb="116" eb="117">
       <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;size=40&gt;★作物の種★&lt;/size&gt;
+宝箱からたまに&lt;b&gt;&lt;color=#ff0000ff&gt;作物の種&lt;/color&gt;&lt;/b&gt;がでることがあります。
+イベント冒険エリアの敵も種をドロップすることがあります。
+どんどん冒険に出て種を手に入れよう！</t>
+    <rPh sb="10" eb="12">
+      <t>サクモツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タネ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>タカラバコ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>サクモツ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>タネ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>タネ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>タネ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -359,8 +405,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2AB9BDE-A9CC-48DC-AC3C-5223BF231827}" name="テーブル1" displayName="テーブル1" ref="A1:B9" totalsRowShown="0">
-  <autoFilter ref="A1:B9" xr:uid="{E2AB9BDE-A9CC-48DC-AC3C-5223BF231827}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2AB9BDE-A9CC-48DC-AC3C-5223BF231827}" name="テーブル1" displayName="テーブル1" ref="A1:B10" totalsRowShown="0">
+  <autoFilter ref="A1:B10" xr:uid="{E2AB9BDE-A9CC-48DC-AC3C-5223BF231827}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D9C8D8FF-F3B3-427E-9910-83D668271F07}" name="ID"/>
     <tableColumn id="2" xr3:uid="{EF5B447A-4808-4554-A034-D8CA54A8BEFE}" name="Text"/>
@@ -666,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9BF399-F6A7-4EE7-8A96-D09C9C129174}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -750,6 +796,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="10" spans="1:2" ht="108" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Excel/LodingTips.xlsx
+++ b/Config/Excel/LodingTips.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB975EB-8E92-4DD8-BAF0-9D6EC9C82B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20346293-3D44-4517-9028-9613F2E192B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2496" yWindow="516" windowWidth="19356" windowHeight="10200" xr2:uid="{CFD34420-279D-4E93-8D12-6FCEAFA44689}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CFD34420-279D-4E93-8D12-6FCEAFA44689}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,155 +32,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Text</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;size=40&gt;★ポイントとは★&lt;/size&gt;
-ポイントを使うと、
-&lt;b&gt;&lt;color=#ff0000ff&gt;ユーザーの設計図購入&lt;/color&gt;&lt;/b&gt;や
-&lt;b&gt;&lt;color=#ff0000ff&gt;ギフト券と交換&lt;/color&gt;&lt;/b&gt;ができます。</t>
-    <rPh sb="31" eb="32">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="61" eb="64">
-      <t>セッケイズ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>コウカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;size=40&gt;★ポイント入手★&lt;/size&gt;
-ポイントは、
-&lt;b&gt;&lt;color=#ff0000ff&gt;冒険&lt;/color&gt;&lt;/b&gt;や&lt;b&gt;&lt;color=#ff0000ff&gt;設計図市場&lt;/color&gt;&lt;/b&gt;などで入手可能。
-クラフトシードで多量に入手も可能。</t>
-    <rPh sb="14" eb="16">
-      <t>ニュウシュ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ボウケン</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ニュウシュ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>タリョウ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>ニュウシュ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;size=40&gt;★宝箱★&lt;/size&gt;
-冒険で宝箱がでることがある。
-&lt;b&gt;&lt;color=#ff0000ff&gt;３倍チケット&lt;/color&gt;&lt;/b&gt;や&lt;b&gt;&lt;color=#ff0000ff&gt;ガチャチケット&lt;/color&gt;&lt;/b&gt;、
-&lt;b&gt;&lt;color=#ff0000ff&gt;ポイント&lt;/color&gt;&lt;/b&gt;などレアなアイテムが入手可能。
-宝箱だけのお宝MAPも・・・・？</t>
-    <rPh sb="10" eb="12">
-      <t>タカラバコ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ボウケン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>タカラバコ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>バイ</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>ニュウシュ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="169" eb="171">
-      <t>タカラバコ</t>
-    </rPh>
-    <rPh sb="175" eb="176">
-      <t>タカラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;size=40&gt;★設計図市場★&lt;/size&gt;
-設計図市場では、
-&lt;b&gt;&lt;color=#ff0000ff&gt;ユーザーの設計図&lt;/color&gt;&lt;/b&gt;を見ることができる。
-新しく購入したユーザーの設計図は、
-アイテムが無くてもホームへ
-配置することが可能。</t>
-    <rPh sb="59" eb="62">
-      <t>セッケイズ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="97" eb="100">
-      <t>セッケイズ</t>
-    </rPh>
-    <rPh sb="108" eb="109">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;size=40&gt;★マイショップ★&lt;/size&gt;
-マイショップでは、
-&lt;b&gt;&lt;color=#ff0000ff&gt;自分の設計図をユーザーへ公開&lt;/color&gt;&lt;/b&gt;することができる。
-他にも、自分への「いいね」数の確認もできる。
-自分の設計図が購入されると、
-&lt;b&gt;&lt;color=#ff0000ff&gt;ポイントを入手&lt;/color&gt;&lt;/b&gt;できる。</t>
-    <rPh sb="105" eb="106">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="118" eb="121">
-      <t>セッケイズ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="155" eb="157">
-      <t>ニュウシュ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -333,6 +191,42 @@
     </rPh>
     <rPh sb="121" eb="122">
       <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;size=40&gt;★サバイバルエリア★&lt;/size&gt;
+&lt;b&gt;&lt;color=#ff0000ff&gt;広大な大地を冒険&lt;/color&gt;&lt;/b&gt;することができる。
+街を作ったり、敵と戦ったり、サバイバル生活を生き残ろう！</t>
+    <rPh sb="48" eb="50">
+      <t>コウダイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ダイチ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>タタカ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>セイカツ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ノコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -714,9 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9BF399-F6A7-4EE7-8A96-D09C9C129174}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -732,12 +624,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="108" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="126" x14ac:dyDescent="0.45">
@@ -748,7 +640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="144" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="126" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -756,7 +648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="144" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="108" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -764,45 +656,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="144" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" ht="108" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="108" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="126" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="126" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="108" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/LodingTips.xlsx
+++ b/Config/Excel/LodingTips.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20346293-3D44-4517-9028-9613F2E192B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A05CAB-9DF4-4F82-B6F6-8555573DB425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CFD34420-279D-4E93-8D12-6FCEAFA44689}"/>
+    <workbookView xWindow="6075" yWindow="105" windowWidth="22395" windowHeight="14325" xr2:uid="{CFD34420-279D-4E93-8D12-6FCEAFA44689}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,191 +42,165 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;size=40&gt;★ベッド★&lt;/size&gt;
-ホームで夜にベッドを使用すると、
-&lt;b&gt;&lt;color=#ff0000ff&gt;朝まで時間をスキップ&lt;/color&gt;&lt;/b&gt;することができる。
-畑の時間は進まないので注意。</t>
-    <rPh sb="27" eb="28">
+    <t>&lt;size=40&gt;★たいまつ★&lt;/size&gt;
+サバイバルエリアの夜は恐ろしい。
+&lt;b&gt;&lt;color=#ff0000ff&gt;敵に囲まれる&lt;/color&gt;&lt;/b&gt;ことも！
+たいまつを置くとその周りは敵が出現しなくなるぞ。</t>
+    <rPh sb="33" eb="34">
       <t>ヨル</t>
     </rPh>
-    <rPh sb="33" eb="35">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>アサ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>ハタケ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ジカン</t>
+    <rPh sb="35" eb="36">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>マワ</t>
     </rPh>
     <rPh sb="97" eb="98">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>チュウイ</t>
+      <t>テキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;size=40&gt;★畑★&lt;/size&gt;
-畑に種を植えると作物が育つ。
-&lt;b&gt;&lt;color=#ff0000ff&gt;成長時間は作物毎に異なる&lt;/color&gt;&lt;/b&gt;ので、待ってみよう。
-土ブロックにクワを使用することで、
-畑ブロックに変化します。</t>
-    <rPh sb="10" eb="11">
-      <t>ハタケ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ハタケ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
+    <t>&lt;size=40&gt;★満腹ゲージ★&lt;/size&gt;
+おなかがすくと、&lt;b&gt;&lt;color=#ff0000ff&gt;HPが削られていくぞ&lt;/color&gt;&lt;/b&gt;。
+土ブロックをクワで耕して、
+種を植えて作物を育てて。
+料理台でご飯を作ろう。</t>
+    <rPh sb="10" eb="12">
+      <t>マンプク</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>タガヤ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
       <t>タネ</t>
     </rPh>
-    <rPh sb="25" eb="26">
+    <rPh sb="93" eb="94">
       <t>ウ</t>
     </rPh>
-    <rPh sb="29" eb="31">
+    <rPh sb="96" eb="98">
       <t>サクモツ</t>
     </rPh>
-    <rPh sb="32" eb="33">
+    <rPh sb="99" eb="100">
       <t>ソダ</t>
     </rPh>
-    <rPh sb="83" eb="84">
-      <t>マ</t>
+    <rPh sb="104" eb="107">
+      <t>リョウリダイ</t>
     </rPh>
     <rPh sb="109" eb="110">
-      <t>ハタケ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ヘンカ</t>
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ツク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;size=40&gt;★スキル★&lt;/size&gt;
-武器には色々なスキルがあります。
-&lt;b&gt;&lt;color=#ff0000ff&gt;同じ武器でも異なるスキル&lt;/color&gt;&lt;/b&gt;がつくことがあります。
-どんどん武器を手に入れて、
+    <t>&lt;size=40&gt;★武器★&lt;/size&gt;
+武器には色々なスキルがある。
+&lt;b&gt;&lt;color=#ff0000ff&gt;同じ武器でも異なるスキル&lt;/color&gt;&lt;/b&gt;がつくこともあるぞ。
+鍛冶台で武器を作って、
 最強の武器を探してみよう！</t>
-    <rPh sb="23" eb="25">
+    <rPh sb="10" eb="12">
       <t>ブキ</t>
     </rPh>
-    <rPh sb="27" eb="29">
+    <rPh sb="22" eb="24">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
       <t>イロイロ</t>
     </rPh>
-    <rPh sb="60" eb="61">
+    <rPh sb="57" eb="58">
       <t>オナ</t>
     </rPh>
-    <rPh sb="62" eb="64">
+    <rPh sb="59" eb="61">
       <t>ブキ</t>
     </rPh>
-    <rPh sb="66" eb="67">
+    <rPh sb="63" eb="64">
       <t>コト</t>
     </rPh>
-    <rPh sb="100" eb="102">
+    <rPh sb="92" eb="95">
+      <t>カジダイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
       <t>ブキ</t>
     </rPh>
-    <rPh sb="103" eb="104">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
+    <rPh sb="99" eb="100">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="104" eb="106">
       <t>サイキョウ</t>
     </rPh>
-    <rPh sb="113" eb="115">
+    <rPh sb="107" eb="109">
       <t>ブキ</t>
     </rPh>
-    <rPh sb="116" eb="117">
+    <rPh sb="110" eb="111">
       <t>サガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;size=40&gt;★作物の種★&lt;/size&gt;
-宝箱からたまに&lt;b&gt;&lt;color=#ff0000ff&gt;作物の種&lt;/color&gt;&lt;/b&gt;がでることがあります。
-イベント冒険エリアの敵も種をドロップすることがあります。
-どんどん冒険に出て種を手に入れよう！</t>
-    <rPh sb="10" eb="12">
-      <t>サクモツ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タネ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>タカラバコ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>サクモツ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>タネ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
+    <t>&lt;size=40&gt;★クラフト素材★&lt;/size&gt;
+冒険エリアやサバイバルエリアで&lt;b&gt;&lt;color=#ff0000ff&gt;盛り土&lt;/color&gt;&lt;/b&gt;や&lt;b&gt;&lt;color=#ff0000ff&gt;岩&lt;/color&gt;&lt;/b&gt;をタップしてみよう。
+&lt;b&gt;&lt;color=#ff0000ff&gt;クラフト素材&lt;/color&gt;&lt;/b&gt;が手に入るぞ。
+いろいろタップや長押ししてみてね。</t>
+    <rPh sb="14" eb="16">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
       <t>ボウケン</t>
     </rPh>
-    <rPh sb="89" eb="90">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>タネ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>ボウケン</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>タネ</t>
-    </rPh>
-    <rPh sb="119" eb="120">
+    <rPh sb="61" eb="62">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="160" eb="161">
       <t>テ</t>
     </rPh>
-    <rPh sb="121" eb="122">
-      <t>イ</t>
+    <rPh sb="162" eb="163">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>ナガオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;size=40&gt;★サバイバルエリア★&lt;/size&gt;
-&lt;b&gt;&lt;color=#ff0000ff&gt;広大な大地を冒険&lt;/color&gt;&lt;/b&gt;することができる。
-街を作ったり、敵と戦ったり、サバイバル生活を生き残ろう！</t>
-    <rPh sb="48" eb="50">
-      <t>コウダイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ダイチ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ボウケン</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>マチ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>タタカ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>セイカツ</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>ノコ</t>
+    <t>&lt;size=40&gt;★ベッド★&lt;/size&gt;
+サバイバルエリアで&lt;b&gt;&lt;color=#ff0000ff&gt;夜にベッドで寝る&lt;/color&gt;&lt;/b&gt;と、
+そのベッドが&lt;b&gt;&lt;color=#ff0000ff&gt;スポーン地点&lt;/color&gt;&lt;/b&gt;に登録されるぞ。
+起きると朝になるすぐれもの。</t>
+    <rPh sb="52" eb="53">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>アサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -608,15 +582,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9BF399-F6A7-4EE7-8A96-D09C9C129174}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="53.59765625" customWidth="1"/>
+    <col min="2" max="2" width="53.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -632,7 +608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="126" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -640,7 +616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="126" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -648,32 +624,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="108" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="108" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="150" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
     </row>
   </sheetData>
